--- a/cta策略/result/螺纹/TRIX_1d/wfo_组合绩效.xlsx
+++ b/cta策略/result/螺纹/TRIX_1d/wfo_组合绩效.xlsx
@@ -423,16 +423,16 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>-0.009388087329837425</v>
+        <v>0.01521959750798008</v>
       </c>
       <c r="D2">
-        <v>-0.2654241657450462</v>
+        <v>-0.1151041855636581</v>
       </c>
       <c r="E2">
-        <v>-0.02979649926020864</v>
+        <v>0.02540610882939313</v>
       </c>
       <c r="F2">
-        <v>0.375</v>
+        <v>0.6470588235294118</v>
       </c>
     </row>
   </sheetData>

--- a/cta策略/result/螺纹/TRIX_1d/wfo_组合绩效.xlsx
+++ b/cta策略/result/螺纹/TRIX_1d/wfo_组合绩效.xlsx
@@ -423,16 +423,16 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>0.01521959750798008</v>
+        <v>0.005611537700116465</v>
       </c>
       <c r="D2">
-        <v>-0.1151041855636581</v>
+        <v>-0.1486311418731485</v>
       </c>
       <c r="E2">
-        <v>0.02540610882939313</v>
+        <v>0.01049409754903341</v>
       </c>
       <c r="F2">
-        <v>0.6470588235294118</v>
+        <v>0.4705882352941176</v>
       </c>
     </row>
   </sheetData>
